--- a/biology/Histoire de la zoologie et de la botanique/Gaston_Vasseur_(géologue)/Gaston_Vasseur_(géologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaston_Vasseur_(géologue)/Gaston_Vasseur_(géologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaston_Vasseur_(g%C3%A9ologue)</t>
+          <t>Gaston_Vasseur_(géologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston-Casimir Vasseur, né le 5 août 1855 à Paris et mort le 9 octobre 1915 à Bach, est un paléontologue et archéologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaston_Vasseur_(g%C3%A9ologue)</t>
+          <t>Gaston_Vasseur_(géologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il passe une partie de son enfance à Hyères. Il y reçoit l’éducation d'un précepteur qui lui donne le goût de l'histoire naturelle et de la géologie. 
-Il effectue ses études à Paris. Après le baccalauréat, il devient licencié de sciences naturelles en 1872[1]. 
-Il se consacre d'abord à la zoologie, puis, seul, ou en compagnie de Edmond Hébert et de Ernest Munier-Chalmas, il explore les carrières et gites fossilifères du Bassin de Paris[2].
+Il effectue ses études à Paris. Après le baccalauréat, il devient licencié de sciences naturelles en 1872. 
+Il se consacre d'abord à la zoologie, puis, seul, ou en compagnie de Edmond Hébert et de Ernest Munier-Chalmas, il explore les carrières et gites fossilifères du Bassin de Paris.
 Sous la direction de Paul Gervais, il décrit entre 1873 et 1878, de nombreux vertébrés du Gypse parisien. 
 Il est préparateur à la Sorbonne dans le laboratoire d'Edmond Hébert durant la préparation de son doctorat. Il entame alors un important travail sur le tertiaire de l'Ouest de la France pour faire sa thèse intitulée Recherches géologiques sur les terrains tertiaires de la France occidentale, publiée en 1880. Il procède à d’importantes fouilles sur les gisements éocènes de Saffré et Campbon en Loire-Atlantique. 
-En 1882, avec l’aide de son cousin Léon Carez, il rénove et réactualise la carte de géologique de France, publiée en 1885[1]. 
+En 1882, avec l’aide de son cousin Léon Carez, il rénove et réactualise la carte de géologique de France, publiée en 1885. 
 Professeur au cours libre de paléontologie de la Faculté de Paris. En 1888, il est chargé de cours à la Faculté des Sciences de Marseille. En 1891, il est professeur de géologie et minéralogie. En 1900, il devient le conservateur du Muséum d'histoire naturelle de Marseille, puis son directeur en 1904. Il meurt le 9 octobre 1915 à Bach et est inhumé au cimetière du Père-Lachaise (11e division).
 Les travaux de Vasseur apportèrent beaucoup à la stratigraphie dont il fut considéré comme l'un des grands noms. En paléontologie, il découvrit et décrivit de nombreuses espèces nouvelles.
 Sa collection est divisée en deux parties :
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaston_Vasseur_(g%C3%A9ologue)</t>
+          <t>Gaston_Vasseur_(géologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trois jours à travers champs dans l’arrondissement de Lisieux, Verger, 1866, p. 8.
 1873 : Découverte dans les plâtrières souterraines de Vitry-sur-Seine, d’un squelette entier de Palaeotherium magnum, Comptes rendus de l’Académie des Sciences.
